--- a/excelSheets/Excelprj.xlsx
+++ b/excelSheets/Excelprj.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharathi\eclipse-workspace\Datadriven9am_dec4_2025\excelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD0B24-AB88-4CE4-8E4C-7AE82525E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650315F0-386E-4D0B-8F53-15F40EE74A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Login page" r:id="rId5" sheetId="2"/>
+    <sheet name="Login page" sheetId="2" r:id="rId2"/>
+    <sheet name="Personal Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>UserName</t>
   </si>
@@ -44,13 +45,126 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>20-11-2030</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>30-11-1990</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Samrithi</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>karthi</t>
+  </si>
+  <si>
+    <t>258963</t>
+  </si>
+  <si>
+    <t>21-11-2030</t>
+  </si>
+  <si>
+    <t>789456</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>29-03-2023</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Nick Name</t>
+  </si>
+  <si>
+    <t>Driver License ID</t>
+  </si>
+  <si>
+    <t>License Expiry Date</t>
+  </si>
+  <si>
+    <t>SSN number</t>
+  </si>
+  <si>
+    <t>SIN number</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Military Service</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Blood Type</t>
+  </si>
+  <si>
+    <t>Test Field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,22 +489,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -398,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -407,6 +524,162 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>